--- a/RE-Framework_RPA08_AirportSKD_박채연/Data/Config.xlsx
+++ b/RE-Framework_RPA08_AirportSKD_박채연/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICT CoC\Documents\REFramework\RE-Framework_RPA08_AirportSKD_박채연\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20BA917-6C28-41C7-BF16-A724520A1079}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD4331B-5D93-4C7C-B0D2-1089522334FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -580,10 +580,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>mangoperry2015@gmail.com</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>&lt;p&gt;&lt;span style="font-family: &amp;quot;Malgun Gothic&amp;quot;; font-size: 12pt;"&gt;</t>
     </r>
@@ -718,6 +714,10 @@
   <si>
     <t>"Result"</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>rpa.sj.jeong@gmail.com</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.5703125" defaultRowHeight="15"/>
@@ -1397,7 +1397,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="6"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>34</v>
@@ -1518,7 +1518,7 @@
         <v>93</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -1556,7 +1556,7 @@
         <v>50</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>51</v>
@@ -1574,7 +1574,7 @@
         <v>99</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -1583,7 +1583,7 @@
         <v>53</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>94</v>
@@ -1619,7 +1619,7 @@
         <v>59</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="31" t="s">
         <v>60</v>
